--- a/数学/作业缴交情况清单.xlsx
+++ b/数学/作业缴交情况清单.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/involution/数学/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/Involution/数学/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F430A474-5B96-0C46-9D76-58535ED2B7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A91C5FB-BA96-934A-8CD2-F5999A2F472B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{417029FB-B7D0-6147-9EE1-8543DD3C645C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{417029FB-B7D0-6147-9EE1-8543DD3C645C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>习题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +198,21 @@
   </si>
   <si>
     <t>刘爱恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14, 33</t>
+  </si>
+  <si>
+    <t>迟交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,23,37,38</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,7 +220,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="mm/dd;@"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -235,16 +254,49 @@
       <color theme="1"/>
       <name val="MiSans Demibold"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="MiSans Normal"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MiSans Medium"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="MiSans Medium"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -302,13 +354,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,16 +552,70 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -354,9 +636,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -394,7 +676,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -500,7 +782,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -642,7 +924,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -653,10 +935,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH51"/>
+  <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="188" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="117" workbookViewId="0">
+      <selection activeCell="AJ4" sqref="AJ4:AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -664,141 +946,187 @@
     <col min="1" max="1" width="4.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" style="2" customWidth="1"/>
     <col min="3" max="34" width="3.83203125" style="2" customWidth="1"/>
-    <col min="35" max="16384" width="10.83203125" style="2"/>
+    <col min="35" max="36" width="10.83203125" style="2"/>
+    <col min="37" max="37" width="16.6640625" style="2" customWidth="1"/>
+    <col min="38" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="78" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:38" ht="78" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-    </row>
-    <row r="2" spans="1:34" ht="89" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+    </row>
+    <row r="2" spans="1:38" ht="89" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-    </row>
-    <row r="3" spans="1:34" ht="64" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="9">
+        <v>22.1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>22.2</v>
+      </c>
+      <c r="E2" s="9">
+        <v>22.3</v>
+      </c>
+      <c r="F2" s="9">
+        <v>22.4</v>
+      </c>
+      <c r="G2" s="9">
+        <v>22.6</v>
+      </c>
+      <c r="H2" s="9">
+        <v>22.5</v>
+      </c>
+      <c r="I2" s="9">
+        <v>23.1</v>
+      </c>
+      <c r="J2" s="9">
+        <v>23.2</v>
+      </c>
+      <c r="K2" s="9">
+        <v>23.3</v>
+      </c>
+      <c r="L2" s="9">
+        <v>23.4</v>
+      </c>
+      <c r="M2" s="9">
+        <v>23.5</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+    </row>
+    <row r="3" spans="1:38" ht="94" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-    </row>
-    <row r="4" spans="1:34" ht="24" customHeight="1">
+      <c r="B3" s="6"/>
+      <c r="C3" s="10">
+        <v>45306</v>
+      </c>
+      <c r="D3" s="10">
+        <v>45306</v>
+      </c>
+      <c r="E3" s="10">
+        <v>45313</v>
+      </c>
+      <c r="F3" s="10">
+        <v>45316</v>
+      </c>
+      <c r="G3" s="10">
+        <v>45369</v>
+      </c>
+      <c r="H3" s="10">
+        <v>45371</v>
+      </c>
+      <c r="I3" s="10">
+        <v>45377</v>
+      </c>
+      <c r="J3" s="10">
+        <v>45326</v>
+      </c>
+      <c r="K3" s="10">
+        <v>45401</v>
+      </c>
+      <c r="L3" s="10">
+        <v>45406</v>
+      </c>
+      <c r="M3" s="10">
+        <v>45411</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+    </row>
+    <row r="4" spans="1:38" ht="24" customHeight="1">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -820,25 +1148,26 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
-    </row>
-    <row r="5" spans="1:34" ht="24" customHeight="1">
+      <c r="AK4" s="14"/>
+    </row>
+    <row r="5" spans="1:38" ht="24" customHeight="1">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -860,25 +1189,26 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
-    </row>
-    <row r="6" spans="1:34" ht="24" customHeight="1">
+      <c r="AK5" s="14"/>
+    </row>
+    <row r="6" spans="1:38" ht="24" customHeight="1">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -900,25 +1230,27 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
-    </row>
-    <row r="7" spans="1:34" ht="24" customHeight="1">
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+    </row>
+    <row r="7" spans="1:38" ht="24" customHeight="1">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -941,24 +1273,24 @@
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
     </row>
-    <row r="8" spans="1:34" ht="24" customHeight="1">
+    <row r="8" spans="1:38" ht="24" customHeight="1">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -981,24 +1313,24 @@
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
     </row>
-    <row r="9" spans="1:34" ht="24" customHeight="1">
+    <row r="9" spans="1:38" ht="24" customHeight="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1021,24 +1353,24 @@
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
     </row>
-    <row r="10" spans="1:34" ht="24" customHeight="1">
+    <row r="10" spans="1:38" ht="24" customHeight="1">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1061,24 +1393,24 @@
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
     </row>
-    <row r="11" spans="1:34" ht="24" customHeight="1">
+    <row r="11" spans="1:38" ht="24" customHeight="1">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1101,24 +1433,24 @@
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
     </row>
-    <row r="12" spans="1:34" ht="24" customHeight="1">
+    <row r="12" spans="1:38" ht="24" customHeight="1">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1141,24 +1473,24 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
     </row>
-    <row r="13" spans="1:34" ht="24" customHeight="1">
+    <row r="13" spans="1:38" ht="24" customHeight="1">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1181,24 +1513,24 @@
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
     </row>
-    <row r="14" spans="1:34" ht="24" customHeight="1">
+    <row r="14" spans="1:38" ht="24" customHeight="1">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1221,24 +1553,24 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
     </row>
-    <row r="15" spans="1:34" ht="24" customHeight="1">
+    <row r="15" spans="1:38" ht="24" customHeight="1">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1261,24 +1593,24 @@
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
     </row>
-    <row r="16" spans="1:34" ht="24" customHeight="1">
+    <row r="16" spans="1:38" ht="24" customHeight="1">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1308,17 +1640,17 @@
       <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1348,17 +1680,17 @@
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1388,17 +1720,17 @@
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1428,17 +1760,17 @@
       <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1468,17 +1800,17 @@
       <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -1508,17 +1840,17 @@
       <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -1548,17 +1880,17 @@
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -1588,17 +1920,17 @@
       <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -1628,17 +1960,17 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="12"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -1668,17 +2000,17 @@
       <c r="B26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="12"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -1708,17 +2040,17 @@
       <c r="B27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -1748,17 +2080,17 @@
       <c r="B28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -1788,17 +2120,17 @@
       <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -1828,17 +2160,17 @@
       <c r="B30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="13"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -1868,17 +2200,17 @@
       <c r="B31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -1908,17 +2240,17 @@
       <c r="B32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -1948,17 +2280,17 @@
       <c r="B33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -1988,17 +2320,17 @@
       <c r="B34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -2028,17 +2360,17 @@
       <c r="B35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -2068,17 +2400,17 @@
       <c r="B36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -2108,17 +2440,17 @@
       <c r="B37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -2148,17 +2480,17 @@
       <c r="B38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -2188,17 +2520,17 @@
       <c r="B39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -2228,17 +2560,17 @@
       <c r="B40" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="12"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -2268,17 +2600,17 @@
       <c r="B41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="12"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2308,17 +2640,17 @@
       <c r="B42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -2348,17 +2680,17 @@
       <c r="B43" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -2388,17 +2720,17 @@
       <c r="B44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -2428,17 +2760,17 @@
       <c r="B45" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -2468,17 +2800,17 @@
       <c r="B46" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -2508,17 +2840,17 @@
       <c r="B47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="11"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -2548,17 +2880,17 @@
       <c r="B48" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
@@ -2588,17 +2920,17 @@
       <c r="B49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -2628,17 +2960,17 @@
       <c r="B50" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="13"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
@@ -2668,17 +3000,17 @@
       <c r="B51" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="11"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
@@ -2712,4 +3044,67 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36A22DD-3C20-7C4C-BF7D-B4F5E1E391CB}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19" thickBot="1">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18">
+      <c r="A2" s="21">
+        <v>23.3</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18">
+      <c r="A3" s="22">
+        <v>23.4</v>
+      </c>
+      <c r="B3" s="17">
+        <v>44</v>
+      </c>
+      <c r="C3" s="18">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19" thickBot="1">
+      <c r="A4" s="23">
+        <v>23.5</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="20">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/数学/作业缴交情况清单.xlsx
+++ b/数学/作业缴交情况清单.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/Involution/数学/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A91C5FB-BA96-934A-8CD2-F5999A2F472B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB16CAC-EF09-5D42-99C9-DBB448CC9C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{417029FB-B7D0-6147-9EE1-8543DD3C645C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="3" xr2:uid="{417029FB-B7D0-6147-9EE1-8543DD3C645C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Empty" sheetId="3" r:id="rId3"/>
+    <sheet name="Empty (2)" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="58">
   <si>
     <t>习题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,15 +217,27 @@
     <t>22,23,37,38</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>座号/姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年 高三商1  数学笔记缴交情况清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="mm/dd;@"/>
+    <numFmt numFmtId="176" formatCode="mm/dd;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -269,6 +283,12 @@
       <color rgb="FF000000"/>
       <name val="MiSans Medium"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MiSans Normal"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -296,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -530,13 +550,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -552,22 +585,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -616,6 +637,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -937,7 +991,7 @@
   </sheetPr>
   <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="117" workbookViewId="0">
       <selection activeCell="AJ4" sqref="AJ4:AL6"/>
     </sheetView>
   </sheetViews>
@@ -952,162 +1006,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="78" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
     </row>
     <row r="2" spans="1:38" ht="89" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="9">
+      <c r="B2" s="24"/>
+      <c r="C2" s="5">
         <v>22.1</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="5">
         <v>22.2</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="5">
         <v>22.3</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="5">
         <v>22.4</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="5">
         <v>22.6</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="5">
         <v>22.5</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="5">
         <v>23.1</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="5">
         <v>23.2</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="5">
         <v>23.3</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="5">
         <v>23.4</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="5">
         <v>23.5</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
     </row>
     <row r="3" spans="1:38" ht="94" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="10">
+      <c r="B3" s="24"/>
+      <c r="C3" s="6">
         <v>45306</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="6">
         <v>45306</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="6">
         <v>45313</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="6">
         <v>45316</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="6">
         <v>45369</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="6">
         <v>45371</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="6">
         <v>45377</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="6">
         <v>45326</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="6">
         <v>45401</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="6">
         <v>45406</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="6">
         <v>45411</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
     </row>
     <row r="4" spans="1:38" ht="24" customHeight="1">
       <c r="A4" s="3">
@@ -1116,17 +1170,17 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1148,7 +1202,7 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
-      <c r="AK4" s="14"/>
+      <c r="AK4" s="10"/>
     </row>
     <row r="5" spans="1:38" ht="24" customHeight="1">
       <c r="A5" s="3">
@@ -1157,17 +1211,17 @@
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1189,7 +1243,7 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
-      <c r="AK5" s="14"/>
+      <c r="AK5" s="10"/>
     </row>
     <row r="6" spans="1:38" ht="24" customHeight="1">
       <c r="A6" s="3">
@@ -1198,17 +1252,17 @@
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1230,8 +1284,8 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="14"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
     </row>
     <row r="7" spans="1:38" ht="24" customHeight="1">
       <c r="A7" s="3">
@@ -1240,17 +1294,17 @@
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1280,17 +1334,17 @@
       <c r="B8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1320,17 +1374,17 @@
       <c r="B9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1360,17 +1414,17 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1400,17 +1454,17 @@
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1440,17 +1494,17 @@
       <c r="B12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1480,17 +1534,17 @@
       <c r="B13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1520,17 +1574,17 @@
       <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1560,17 +1614,17 @@
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1600,17 +1654,17 @@
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1640,17 +1694,17 @@
       <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1680,17 +1734,17 @@
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1720,17 +1774,17 @@
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1760,17 +1814,17 @@
       <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1800,17 +1854,17 @@
       <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -1840,17 +1894,17 @@
       <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -1880,17 +1934,17 @@
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -1920,17 +1974,17 @@
       <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -1960,17 +2014,17 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="12"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="8"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -2000,17 +2054,17 @@
       <c r="B26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="12"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="8"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2040,17 +2094,17 @@
       <c r="B27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -2080,17 +2134,17 @@
       <c r="B28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2120,17 +2174,17 @@
       <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -2160,17 +2214,17 @@
       <c r="B30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="13"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="9"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -2200,17 +2254,17 @@
       <c r="B31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -2240,17 +2294,17 @@
       <c r="B32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -2280,17 +2334,17 @@
       <c r="B33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -2320,17 +2374,17 @@
       <c r="B34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -2360,17 +2414,17 @@
       <c r="B35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -2400,17 +2454,17 @@
       <c r="B36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -2440,17 +2494,17 @@
       <c r="B37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -2480,17 +2534,17 @@
       <c r="B38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -2520,17 +2574,17 @@
       <c r="B39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -2560,17 +2614,17 @@
       <c r="B40" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="12"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="8"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -2600,17 +2654,17 @@
       <c r="B41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="12"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="8"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2640,17 +2694,17 @@
       <c r="B42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -2680,17 +2734,17 @@
       <c r="B43" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -2720,17 +2774,17 @@
       <c r="B44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -2760,17 +2814,17 @@
       <c r="B45" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -2800,17 +2854,17 @@
       <c r="B46" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -2840,17 +2894,17 @@
       <c r="B47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="11"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="7"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -2880,17 +2934,17 @@
       <c r="B48" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
@@ -2920,17 +2974,17 @@
       <c r="B49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -2960,17 +3014,17 @@
       <c r="B50" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="13"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="9"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
@@ -3000,17 +3054,17 @@
       <c r="B51" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="11"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="7"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
@@ -3050,7 +3104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36A22DD-3C20-7C4C-BF7D-B4F5E1E391CB}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+    <sheetView zoomScale="134" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -3061,44 +3115,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19" thickBot="1">
-      <c r="A1" s="24"/>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18">
-      <c r="A2" s="21">
+      <c r="A2" s="17">
         <v>23.3</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18">
-      <c r="A3" s="22">
+      <c r="A3" s="18">
         <v>23.4</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="13">
         <v>44</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="14">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19" thickBot="1">
-      <c r="A4" s="23">
+      <c r="A4" s="19">
         <v>23.5</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="16">
         <v>47</v>
       </c>
     </row>
@@ -3107,4 +3161,2622 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEAB60F-C24C-6049-9DFD-296A3F5776B0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AL51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" zoomScale="117" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="2" customWidth="1"/>
+    <col min="3" max="34" width="3.83203125" style="2" customWidth="1"/>
+    <col min="35" max="36" width="10.83203125" style="2"/>
+    <col min="37" max="37" width="16.6640625" style="2" customWidth="1"/>
+    <col min="38" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="78" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+    </row>
+    <row r="2" spans="1:38" ht="89" customHeight="1">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+    </row>
+    <row r="3" spans="1:38" ht="94" customHeight="1">
+      <c r="A3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+    </row>
+    <row r="4" spans="1:38" ht="24" customHeight="1">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AK4" s="10"/>
+    </row>
+    <row r="5" spans="1:38" ht="24" customHeight="1">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AK5" s="10"/>
+    </row>
+    <row r="6" spans="1:38" ht="24" customHeight="1">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+    </row>
+    <row r="7" spans="1:38" ht="24" customHeight="1">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+    </row>
+    <row r="8" spans="1:38" ht="24" customHeight="1">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+    </row>
+    <row r="9" spans="1:38" ht="24" customHeight="1">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+    </row>
+    <row r="10" spans="1:38" ht="24" customHeight="1">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+    </row>
+    <row r="11" spans="1:38" ht="24" customHeight="1">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+    </row>
+    <row r="12" spans="1:38" ht="24" customHeight="1">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+    </row>
+    <row r="13" spans="1:38" ht="24" customHeight="1">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+    </row>
+    <row r="14" spans="1:38" ht="24" customHeight="1">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+    </row>
+    <row r="15" spans="1:38" ht="24" customHeight="1">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+    </row>
+    <row r="16" spans="1:38" ht="24" customHeight="1">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+    </row>
+    <row r="17" spans="1:34" ht="24" customHeight="1">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+    </row>
+    <row r="18" spans="1:34" ht="24" customHeight="1">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+    </row>
+    <row r="19" spans="1:34" ht="24" customHeight="1">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+    </row>
+    <row r="20" spans="1:34" ht="24" customHeight="1">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+    </row>
+    <row r="21" spans="1:34" ht="24" customHeight="1">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+    </row>
+    <row r="22" spans="1:34" ht="24" customHeight="1">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+    </row>
+    <row r="23" spans="1:34" ht="24" customHeight="1">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+    </row>
+    <row r="24" spans="1:34" ht="24" customHeight="1">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+    </row>
+    <row r="25" spans="1:34" ht="24" customHeight="1">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+    </row>
+    <row r="26" spans="1:34" ht="24" customHeight="1">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+    </row>
+    <row r="27" spans="1:34" ht="24" customHeight="1">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+    </row>
+    <row r="28" spans="1:34" ht="24" customHeight="1">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+    </row>
+    <row r="29" spans="1:34" ht="24" customHeight="1">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+    </row>
+    <row r="30" spans="1:34" ht="24" customHeight="1">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+    </row>
+    <row r="31" spans="1:34" ht="24" customHeight="1">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+    </row>
+    <row r="32" spans="1:34" ht="24" customHeight="1">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+    </row>
+    <row r="33" spans="1:34" ht="24" customHeight="1">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+    </row>
+    <row r="34" spans="1:34" ht="24" customHeight="1">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+    </row>
+    <row r="35" spans="1:34" ht="24" customHeight="1">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+    </row>
+    <row r="36" spans="1:34" ht="24" customHeight="1">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+    </row>
+    <row r="37" spans="1:34" ht="24" customHeight="1">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+    </row>
+    <row r="38" spans="1:34" ht="24" customHeight="1">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+    </row>
+    <row r="39" spans="1:34" ht="24" customHeight="1">
+      <c r="A39" s="3">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+    </row>
+    <row r="40" spans="1:34" ht="24" customHeight="1">
+      <c r="A40" s="3">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+    </row>
+    <row r="41" spans="1:34" ht="24" customHeight="1">
+      <c r="A41" s="3">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+    </row>
+    <row r="42" spans="1:34" ht="24" customHeight="1">
+      <c r="A42" s="3">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+    </row>
+    <row r="43" spans="1:34" ht="24" customHeight="1">
+      <c r="A43" s="3">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+    </row>
+    <row r="44" spans="1:34" ht="24" customHeight="1">
+      <c r="A44" s="3">
+        <v>41</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+    </row>
+    <row r="45" spans="1:34" ht="24" customHeight="1">
+      <c r="A45" s="3">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+    </row>
+    <row r="46" spans="1:34" ht="24" customHeight="1">
+      <c r="A46" s="3">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+    </row>
+    <row r="47" spans="1:34" ht="24" customHeight="1">
+      <c r="A47" s="3">
+        <v>44</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+    </row>
+    <row r="48" spans="1:34" ht="24" customHeight="1">
+      <c r="A48" s="3">
+        <v>45</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+    </row>
+    <row r="49" spans="1:34" ht="24" customHeight="1">
+      <c r="A49" s="3">
+        <v>46</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+    </row>
+    <row r="50" spans="1:34" ht="24" customHeight="1">
+      <c r="A50" s="3">
+        <v>47</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+    </row>
+    <row r="51" spans="1:34" ht="24" customHeight="1">
+      <c r="A51" s="3">
+        <v>48</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="56" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876E624A-FCF7-3744-A886-821EBBA2CB5F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4" style="2" customWidth="1"/>
+    <col min="4" max="4" width="107.1640625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="16.6640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="78" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="35" customHeight="1">
+      <c r="A2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:8" ht="44" customHeight="1">
+      <c r="A3" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="33"/>
+    </row>
+    <row r="4" spans="1:8" ht="24" customHeight="1">
+      <c r="A4" s="31">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="24" customHeight="1">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="24" customHeight="1">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="24" customHeight="1">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" ht="24" customHeight="1">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+    </row>
+    <row r="9" spans="1:8" ht="24" customHeight="1">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+    </row>
+    <row r="10" spans="1:8" ht="24" customHeight="1">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+    </row>
+    <row r="11" spans="1:8" ht="24" customHeight="1">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+    </row>
+    <row r="12" spans="1:8" ht="24" customHeight="1">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" ht="24" customHeight="1">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+    </row>
+    <row r="14" spans="1:8" ht="24" customHeight="1">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+    </row>
+    <row r="15" spans="1:8" ht="24" customHeight="1">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+    </row>
+    <row r="16" spans="1:8" ht="24" customHeight="1">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+    </row>
+    <row r="17" spans="1:4" ht="24" customHeight="1">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+    </row>
+    <row r="18" spans="1:4" ht="24" customHeight="1">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+    </row>
+    <row r="19" spans="1:4" ht="24" customHeight="1">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+    </row>
+    <row r="20" spans="1:4" ht="24" customHeight="1">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+    </row>
+    <row r="21" spans="1:4" ht="24" customHeight="1">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+    </row>
+    <row r="22" spans="1:4" ht="24" customHeight="1">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+    </row>
+    <row r="23" spans="1:4" ht="24" customHeight="1">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" spans="1:4" ht="24" customHeight="1">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+    </row>
+    <row r="25" spans="1:4" ht="24" customHeight="1">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+    </row>
+    <row r="26" spans="1:4" ht="24" customHeight="1">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+    </row>
+    <row r="27" spans="1:4" ht="24" customHeight="1">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+    </row>
+    <row r="28" spans="1:4" ht="24" customHeight="1">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+    </row>
+    <row r="29" spans="1:4" ht="24" customHeight="1">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+    </row>
+    <row r="30" spans="1:4" ht="24" customHeight="1">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+    </row>
+    <row r="31" spans="1:4" ht="24" customHeight="1">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+    </row>
+    <row r="32" spans="1:4" ht="24" customHeight="1">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+    </row>
+    <row r="33" spans="1:4" ht="24" customHeight="1">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+    </row>
+    <row r="34" spans="1:4" ht="24" customHeight="1">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+    </row>
+    <row r="35" spans="1:4" ht="24" customHeight="1">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+    </row>
+    <row r="36" spans="1:4" ht="24" customHeight="1">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+    </row>
+    <row r="37" spans="1:4" ht="24" customHeight="1">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+    </row>
+    <row r="38" spans="1:4" ht="24" customHeight="1">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+    </row>
+    <row r="39" spans="1:4" ht="24" customHeight="1">
+      <c r="A39" s="3">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+    </row>
+    <row r="40" spans="1:4" ht="24" customHeight="1">
+      <c r="A40" s="3">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+    </row>
+    <row r="41" spans="1:4" ht="24" customHeight="1">
+      <c r="A41" s="3">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+    </row>
+    <row r="42" spans="1:4" ht="24" customHeight="1">
+      <c r="A42" s="3">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+    </row>
+    <row r="43" spans="1:4" ht="24" customHeight="1">
+      <c r="A43" s="3">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+    </row>
+    <row r="44" spans="1:4" ht="24" customHeight="1">
+      <c r="A44" s="3">
+        <v>41</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+    </row>
+    <row r="45" spans="1:4" ht="24" customHeight="1">
+      <c r="A45" s="3">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+    </row>
+    <row r="46" spans="1:4" ht="24" customHeight="1">
+      <c r="A46" s="3">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+    </row>
+    <row r="47" spans="1:4" ht="24" customHeight="1">
+      <c r="A47" s="3">
+        <v>44</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+    </row>
+    <row r="48" spans="1:4" ht="24" customHeight="1">
+      <c r="A48" s="3">
+        <v>45</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" customHeight="1">
+      <c r="A49" s="3">
+        <v>46</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" customHeight="1">
+      <c r="A50" s="3">
+        <v>47</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" customHeight="1">
+      <c r="A51" s="3">
+        <v>48</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>